--- a/Excel-XLSX/UN-ERT.xlsx
+++ b/Excel-XLSX/UN-ERT.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Vzt40A</t>
+    <t>168mSO</t>
   </si>
   <si>
     <t>2000</t>
@@ -210,6 +210,9 @@
     <t>2023</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>193</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>2004</t>
@@ -1272,8 +1272,8 @@
       <c r="U2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
+      <c r="V2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1340,8 +1340,8 @@
       <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1408,8 +1408,8 @@
       <c r="U4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>31</v>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1476,8 +1476,8 @@
       <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>31</v>
+      <c r="V5" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1544,8 +1544,8 @@
       <c r="U6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>31</v>
+      <c r="V6" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1612,8 +1612,8 @@
       <c r="U7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>31</v>
+      <c r="V7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1680,8 +1680,8 @@
       <c r="U8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>31</v>
+      <c r="V8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1748,8 +1748,8 @@
       <c r="U9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>31</v>
+      <c r="V9" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1816,8 +1816,8 @@
       <c r="U10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>31</v>
+      <c r="V10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1884,8 +1884,8 @@
       <c r="U11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>31</v>
+      <c r="V11" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1952,8 +1952,8 @@
       <c r="U12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>31</v>
+      <c r="V12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2020,8 +2020,8 @@
       <c r="U13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>31</v>
+      <c r="V13" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2151,7 +2151,7 @@
         <v>29</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>31</v>
@@ -2171,22 +2171,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>25</v>
@@ -2219,13 +2219,13 @@
         <v>29</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>31</v>
+      <c r="V16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2242,19 +2242,19 @@
         <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>25</v>
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>31</v>
+      <c r="V17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2310,19 +2310,19 @@
         <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>25</v>
@@ -2340,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>29</v>
@@ -2360,8 +2360,8 @@
       <c r="U18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>31</v>
+      <c r="V18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2375,22 +2375,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>25</v>
@@ -2428,8 +2428,8 @@
       <c r="U19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>31</v>
+      <c r="V19" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2449,16 +2449,16 @@
         <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>25</v>
@@ -2496,8 +2496,8 @@
       <c r="U20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>31</v>
+      <c r="V20" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2517,16 +2517,16 @@
         <v>33</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>25</v>
@@ -2564,8 +2564,8 @@
       <c r="U21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>31</v>
+      <c r="V21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2585,16 +2585,16 @@
         <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>25</v>
@@ -2632,8 +2632,8 @@
       <c r="U22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>31</v>
+      <c r="V22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2653,16 +2653,16 @@
         <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>25</v>
@@ -2700,8 +2700,8 @@
       <c r="U23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>31</v>
+      <c r="V23" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -2721,16 +2721,16 @@
         <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>25</v>
@@ -2768,8 +2768,8 @@
       <c r="U24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>31</v>
+      <c r="V24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -2789,16 +2789,16 @@
         <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>25</v>
@@ -2836,8 +2836,8 @@
       <c r="U25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>31</v>
+      <c r="V25" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -2857,16 +2857,16 @@
         <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>25</v>
@@ -2904,8 +2904,8 @@
       <c r="U26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>31</v>
+      <c r="V26" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2925,16 +2925,16 @@
         <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>25</v>
@@ -2972,8 +2972,8 @@
       <c r="U27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>31</v>
+      <c r="V27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -2993,16 +2993,16 @@
         <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>25</v>
@@ -3040,8 +3040,8 @@
       <c r="U28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>31</v>
+      <c r="V28" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -3061,16 +3061,16 @@
         <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>25</v>
@@ -3108,8 +3108,8 @@
       <c r="U29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>31</v>
+      <c r="V29" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -3129,16 +3129,16 @@
         <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>25</v>
@@ -3176,8 +3176,8 @@
       <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>31</v>
+      <c r="V30" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -3197,16 +3197,16 @@
         <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>25</v>
@@ -3244,8 +3244,8 @@
       <c r="U31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>31</v>
+      <c r="V31" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -3265,16 +3265,16 @@
         <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>25</v>
@@ -3312,8 +3312,8 @@
       <c r="U32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>31</v>
+      <c r="V32" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -3333,16 +3333,16 @@
         <v>52</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>25</v>
@@ -3380,8 +3380,8 @@
       <c r="U33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>31</v>
+      <c r="V33" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -3401,16 +3401,16 @@
         <v>54</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>25</v>
@@ -3425,7 +3425,7 @@
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>29</v>
@@ -3448,8 +3448,8 @@
       <c r="U34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>31</v>
+      <c r="V34" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -3469,16 +3469,16 @@
         <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>25</v>
@@ -3493,7 +3493,7 @@
         <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>29</v>
@@ -3516,8 +3516,8 @@
       <c r="U35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>31</v>
+      <c r="V35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -3537,16 +3537,16 @@
         <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>25</v>
@@ -3561,7 +3561,7 @@
         <v>28</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>29</v>
@@ -3584,8 +3584,8 @@
       <c r="U36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>31</v>
+      <c r="V36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -3605,16 +3605,16 @@
         <v>61</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>25</v>
@@ -3629,7 +3629,7 @@
         <v>28</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>29</v>
@@ -3673,16 +3673,16 @@
         <v>63</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>25</v>
@@ -3697,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>29</v>
@@ -3788,8 +3788,8 @@
       <c r="U39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>31</v>
+      <c r="V39" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -3856,8 +3856,8 @@
       <c r="U40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>31</v>
+      <c r="V40" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -3924,8 +3924,8 @@
       <c r="U41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>31</v>
+      <c r="V41" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -3992,8 +3992,8 @@
       <c r="U42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>31</v>
+      <c r="V42" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -4060,8 +4060,8 @@
       <c r="U43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>31</v>
+      <c r="V43" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -4128,8 +4128,8 @@
       <c r="U44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>31</v>
+      <c r="V44" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -4196,8 +4196,8 @@
       <c r="U45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>31</v>
+      <c r="V45" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -4264,8 +4264,8 @@
       <c r="U46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>31</v>
+      <c r="V46" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -4332,8 +4332,8 @@
       <c r="U47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>31</v>
+      <c r="V47" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -4350,7 +4350,7 @@
         <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>117</v>
@@ -4400,8 +4400,8 @@
       <c r="U48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>31</v>
+      <c r="V48" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -4418,7 +4418,7 @@
         <v>141</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>117</v>
@@ -4468,8 +4468,8 @@
       <c r="U49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>31</v>
+      <c r="V49" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -4486,7 +4486,7 @@
         <v>143</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>117</v>
@@ -4536,8 +4536,8 @@
       <c r="U50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>31</v>
+      <c r="V50" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -4604,8 +4604,8 @@
       <c r="U51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>31</v>
+      <c r="V51" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -4672,8 +4672,8 @@
       <c r="U52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>31</v>
+      <c r="V52" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -4740,8 +4740,8 @@
       <c r="U53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>31</v>
+      <c r="V53" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -4788,7 +4788,7 @@
         <v>151</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>29</v>
@@ -4808,8 +4808,8 @@
       <c r="U54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>31</v>
+      <c r="V54" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -4876,8 +4876,8 @@
       <c r="U55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>31</v>
+      <c r="V55" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -4944,8 +4944,8 @@
       <c r="U56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>31</v>
+      <c r="V56" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -5012,8 +5012,8 @@
       <c r="U57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>31</v>
+      <c r="V57" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -5080,8 +5080,8 @@
       <c r="U58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>31</v>
+      <c r="V58" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59">
@@ -5095,7 +5095,7 @@
         <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>36</v>
@@ -5148,8 +5148,8 @@
       <c r="U59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>31</v>
+      <c r="V59" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -5216,8 +5216,8 @@
       <c r="U60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>31</v>
+      <c r="V60" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61">
@@ -5284,8 +5284,8 @@
       <c r="U61" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>31</v>
+      <c r="V61" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -5352,8 +5352,8 @@
       <c r="U62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>31</v>
+      <c r="V62" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -5420,8 +5420,8 @@
       <c r="U63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>31</v>
+      <c r="V63" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -5488,8 +5488,8 @@
       <c r="U64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>31</v>
+      <c r="V64" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -5556,8 +5556,8 @@
       <c r="U65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>31</v>
+      <c r="V65" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="66">
@@ -5624,8 +5624,8 @@
       <c r="U66" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>31</v>
+      <c r="V66" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -5692,8 +5692,8 @@
       <c r="U67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>31</v>
+      <c r="V67" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -5760,8 +5760,8 @@
       <c r="U68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>31</v>
+      <c r="V68" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -5828,8 +5828,8 @@
       <c r="U69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>31</v>
+      <c r="V69" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -5896,8 +5896,8 @@
       <c r="U70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>31</v>
+      <c r="V70" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -5964,8 +5964,8 @@
       <c r="U71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>31</v>
+      <c r="V71" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72">
@@ -6032,8 +6032,8 @@
       <c r="U72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>31</v>
+      <c r="V72" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -6100,8 +6100,8 @@
       <c r="U73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>31</v>
+      <c r="V73" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -6168,8 +6168,8 @@
       <c r="U74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>31</v>
+      <c r="V74" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75">
@@ -6186,7 +6186,7 @@
         <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>178</v>
@@ -6236,8 +6236,8 @@
       <c r="U75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>31</v>
+      <c r="V75" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="76">
@@ -6254,7 +6254,7 @@
         <v>192</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>178</v>
@@ -6304,8 +6304,8 @@
       <c r="U76" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>31</v>
+      <c r="V76" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -6322,7 +6322,7 @@
         <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>178</v>
@@ -6372,8 +6372,8 @@
       <c r="U77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>31</v>
+      <c r="V77" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -6440,8 +6440,8 @@
       <c r="U78" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>31</v>
+      <c r="V78" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -6508,8 +6508,8 @@
       <c r="U79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>31</v>
+      <c r="V79" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -6576,8 +6576,8 @@
       <c r="U80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>31</v>
+      <c r="V80" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -6644,8 +6644,8 @@
       <c r="U81" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>31</v>
+      <c r="V81" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -6712,8 +6712,8 @@
       <c r="U82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>31</v>
+      <c r="V82" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -6780,8 +6780,8 @@
       <c r="U83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>31</v>
+      <c r="V83" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -6848,8 +6848,8 @@
       <c r="U84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>31</v>
+      <c r="V84" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -6916,8 +6916,8 @@
       <c r="U85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>31</v>
+      <c r="V85" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -6984,8 +6984,8 @@
       <c r="U86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>31</v>
+      <c r="V86" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="87">
@@ -7052,8 +7052,8 @@
       <c r="U87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>31</v>
+      <c r="V87" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="88">
@@ -7120,8 +7120,8 @@
       <c r="U88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>31</v>
+      <c r="V88" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="89">
@@ -7188,8 +7188,8 @@
       <c r="U89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>31</v>
+      <c r="V89" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -7256,8 +7256,8 @@
       <c r="U90" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>31</v>
+      <c r="V90" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -7324,8 +7324,8 @@
       <c r="U91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>31</v>
+      <c r="V91" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -7392,8 +7392,8 @@
       <c r="U92" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>31</v>
+      <c r="V92" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -7460,8 +7460,8 @@
       <c r="U93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>31</v>
+      <c r="V93" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -7528,8 +7528,8 @@
       <c r="U94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>31</v>
+      <c r="V94" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -7596,8 +7596,8 @@
       <c r="U95" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>31</v>
+      <c r="V95" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -7800,8 +7800,8 @@
       <c r="U98" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>31</v>
+      <c r="V98" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99">
@@ -7851,7 +7851,7 @@
         <v>29</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>29</v>
@@ -7868,8 +7868,8 @@
       <c r="U99" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>31</v>
+      <c r="V99" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="100">
@@ -7913,7 +7913,7 @@
         <v>28</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>29</v>
@@ -7936,8 +7936,8 @@
       <c r="U100" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>31</v>
+      <c r="V100" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="101">
@@ -7951,7 +7951,7 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>44</v>
@@ -8004,8 +8004,8 @@
       <c r="U101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>31</v>
+      <c r="V101" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="102">
@@ -8072,8 +8072,8 @@
       <c r="U102" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>31</v>
+      <c r="V102" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="103">
@@ -8140,8 +8140,8 @@
       <c r="U103" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>31</v>
+      <c r="V103" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="104">
@@ -8208,8 +8208,8 @@
       <c r="U104" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>31</v>
+      <c r="V104" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="105">
@@ -8276,8 +8276,8 @@
       <c r="U105" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>31</v>
+      <c r="V105" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -8344,8 +8344,8 @@
       <c r="U106" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>31</v>
+      <c r="V106" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -8412,8 +8412,8 @@
       <c r="U107" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>31</v>
+      <c r="V107" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -8616,8 +8616,8 @@
       <c r="U110" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>31</v>
+      <c r="V110" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="111">
@@ -8684,8 +8684,8 @@
       <c r="U111" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>31</v>
+      <c r="V111" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="112">
@@ -8752,8 +8752,8 @@
       <c r="U112" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>31</v>
+      <c r="V112" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="113">
@@ -8820,8 +8820,8 @@
       <c r="U113" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>31</v>
+      <c r="V113" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-ERT.xlsx
+++ b/Excel-XLSX/UN-ERT.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>168mSO</t>
+    <t>u55EDM</t>
   </si>
   <si>
     <t>1993</t>
